--- a/AAII_Financials/Quarterly/MIK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MIK_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>MIK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,201 +665,213 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43862</v>
+      </c>
+      <c r="E7" s="2">
         <v>43771</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43680</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43589</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43498</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43407</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43225</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43134</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43036</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42945</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42854</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42763</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1722600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1222000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1033700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1093700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1789100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1274100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2208800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1155500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1890600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1240200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2231200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1158600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1750900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1227200</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1076600</v>
+      </c>
+      <c r="E9" s="3">
         <v>780400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>666700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>676100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1074300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>795100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1378900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>698900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1116100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>756100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1361000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>690900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1045100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>760600</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>646000</v>
+      </c>
+      <c r="E10" s="3">
         <v>441600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>367000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>417600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>714800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>479000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>829900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>456600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>774500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>484100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>870200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>467700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>705800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>466600</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +888,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -920,8 +933,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -964,38 +980,41 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>41500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>60000</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>46100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>47500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>7400</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
@@ -1003,13 +1022,16 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>7400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1052,8 +1074,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1067,96 +1092,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1447600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1146100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>963500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1001000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1515900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1136900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2057400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1076600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1536300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1086300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2003900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1019300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1414300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1087800</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>275000</v>
+      </c>
+      <c r="E18" s="3">
         <v>75900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>70200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>92700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>273200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>137200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>151400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>78900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>354300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>153900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>227300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>139300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>336600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>139400</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1173,228 +1205,244 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1700</v>
-      </c>
-      <c r="K20" s="3">
-        <v>400</v>
       </c>
       <c r="L20" s="3">
         <v>400</v>
       </c>
       <c r="M20" s="3">
+        <v>400</v>
+      </c>
+      <c r="N20" s="3">
         <v>-1400</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>308100</v>
+      </c>
+      <c r="E21" s="3">
         <v>107100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>101600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>121100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>307300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>168200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>213000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>110100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>387400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>183000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>283400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>167900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>365900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>167400</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E22" s="3">
         <v>38800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>40100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>37400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>37600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>37800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>71700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>34600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>34800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>32800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>61500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>30400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>30600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>238800</v>
+      </c>
+      <c r="E23" s="3">
         <v>37000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>30300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>52300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>235400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>99500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>82200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>46000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>319900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>121400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>164400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>108900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>306200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>107600</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>57200</v>
+      </c>
+      <c r="E24" s="3">
         <v>8300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>14600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>54000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>22800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>19700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>11100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>108400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>41600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>56700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>36700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>110900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>31200</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1437,96 +1485,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>181700</v>
+      </c>
+      <c r="E26" s="3">
         <v>28700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>24500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>37700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>181400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>76700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>62500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>35000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>211500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>79800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>107800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>72200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>195300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>76500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>181400</v>
+      </c>
+      <c r="E27" s="3">
         <v>28700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>24500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>37700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>181100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>76500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>62300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>34900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>210700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>79500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>107300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>71900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>194200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1569,8 +1626,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1583,23 +1643,23 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>7100</v>
-      </c>
-      <c r="I29" s="3">
-        <v>-8100</v>
       </c>
       <c r="J29" s="3">
         <v>-8100</v>
       </c>
       <c r="K29" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="L29" s="3">
         <v>-8500</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1613,8 +1673,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1657,8 +1720,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1701,96 +1767,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1700</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-400</v>
       </c>
       <c r="L32" s="3">
         <v>-400</v>
       </c>
       <c r="M32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N32" s="3">
         <v>1400</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>181400</v>
+      </c>
+      <c r="E33" s="3">
         <v>28700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>24500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>37700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>181100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>83600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>54200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>26800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>202200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>79500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>107300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>71900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>194200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1833,101 +1908,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>181400</v>
+      </c>
+      <c r="E35" s="3">
         <v>28700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>24500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>37700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>181100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>83600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>54200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>26800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>202200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>79500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>107300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>71900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>194200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43862</v>
+      </c>
+      <c r="E38" s="2">
         <v>43771</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43680</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43589</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43498</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43407</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43225</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43134</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43036</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42945</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42854</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42763</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1944,8 +2028,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1962,52 +2047,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>410000</v>
+      </c>
+      <c r="E41" s="3">
         <v>118400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>131000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>246700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>245900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>102700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>123200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>422500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>425900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>176800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>134100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>197900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>298800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>150000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2050,184 +2139,199 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>30400</v>
+      </c>
+      <c r="E43" s="3">
         <v>27000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>23900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>36200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>62300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>49500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>47600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>32900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>30000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>36700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>44400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>29800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>29000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>63700</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1097100</v>
+      </c>
+      <c r="E44" s="3">
         <v>1423400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1256500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1101700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1108700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1440900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1280100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1121600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1123300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1404200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1195500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1102300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1127800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1394100</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>62300</v>
+      </c>
+      <c r="E45" s="3">
         <v>73200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>69700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>65300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>98700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>100800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>98700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>108500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>97800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>96000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>87200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>84900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>87200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1599800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1641900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1481100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1450000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1515500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1693900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1549600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1685300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1677000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1713700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1461200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1414800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1542800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1693400</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2270,96 +2374,105 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2040400</v>
+      </c>
+      <c r="E48" s="3">
         <v>2045500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2048500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2047600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>439100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>453400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>445100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>424900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>420000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>401900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>407700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>403000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>413200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>412200</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>160700</v>
+      </c>
+      <c r="E49" s="3">
         <v>99300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>126200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>129000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>129300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>139700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>140100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>140500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>140800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>141300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>141800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>142300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>142800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>143500</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2402,8 +2515,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2446,52 +2562,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>37100</v>
+      </c>
+      <c r="E52" s="3">
         <v>58300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>51400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>52600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>44400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>52100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>57700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>62800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>62400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>49200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>49300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>49600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>48900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>42300</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2534,52 +2656,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3838100</v>
+      </c>
+      <c r="E54" s="3">
         <v>3845100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3707100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3679300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2128300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2339000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2192500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2313500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2300200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2306100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2060000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2009800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2147600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2291500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2596,8 +2724,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2614,52 +2743,56 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>476300</v>
+      </c>
+      <c r="E57" s="3">
         <v>658200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>533500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>406900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>485000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>645500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>555300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>449700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>483000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>674200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>510800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>430300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>517300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>714200</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2676,210 +2809,225 @@
         <v>24900</v>
       </c>
       <c r="H58" s="3">
+        <v>24900</v>
+      </c>
+      <c r="I58" s="3">
         <v>240300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>140300</v>
-      </c>
-      <c r="J58" s="3">
-        <v>24900</v>
       </c>
       <c r="K58" s="3">
         <v>24900</v>
       </c>
       <c r="L58" s="3">
+        <v>24900</v>
+      </c>
+      <c r="M58" s="3">
         <v>140100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>112100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>24900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>31100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>695200</v>
+      </c>
+      <c r="E59" s="3">
         <v>699700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>632800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>710200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>422600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>408200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>352400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>466800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>450000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>416800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>392600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>457200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>475800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>378300</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1196400</v>
+      </c>
+      <c r="E60" s="3">
         <v>1382700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1191200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1142100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>932600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1293900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1047900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>941400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>957900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1231200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1015600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>912300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1024200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1117400</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2644500</v>
+      </c>
+      <c r="E61" s="3">
         <v>2649800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2655400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2675600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2681000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2690300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2695100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2696400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2701800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2707100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2712500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2717800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2723200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2734800</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1443700</v>
+      </c>
+      <c r="E62" s="3">
         <v>1444400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1448100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1448900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>141000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>144700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>148900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>159600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>150000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>100700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>100000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>101600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>98700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>98900</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2922,8 +3070,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2966,8 +3117,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3010,52 +3164,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5284600</v>
+      </c>
+      <c r="E66" s="3">
         <v>5476900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5294700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5266600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3754500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4128900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3891900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3797500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3809700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4038900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3828000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3731700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3846100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3951000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3072,8 +3232,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3116,8 +3277,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3160,8 +3324,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3204,8 +3371,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3248,52 +3418,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1438400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1620000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1573800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1590500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1628200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1781500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1701000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1512900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1539800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1742700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1822500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1858100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1930300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-2125600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3336,8 +3512,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3380,8 +3559,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3424,52 +3606,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1446500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1631800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1587600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1587400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1626200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1789900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1699400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1483900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1509500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1732800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1768000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1721900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1698400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1659500</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3512,101 +3700,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43862</v>
+      </c>
+      <c r="E80" s="2">
         <v>43771</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43680</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43589</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43498</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43407</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43225</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43134</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43036</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42945</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42854</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42763</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>181400</v>
+      </c>
+      <c r="E81" s="3">
         <v>28700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>24500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>37700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>181100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>83600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>54200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>26800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>202200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>79500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>107300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>71900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>194200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3623,52 +3820,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E83" s="3">
         <v>31300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>31200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>31500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>34300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>30900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>59100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>29500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>32700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>28800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>57400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>28600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>29100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>28200</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3711,8 +3912,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3755,8 +3959,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3799,8 +4006,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3843,8 +4053,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3887,52 +4100,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>386800</v>
+      </c>
+      <c r="E89" s="3">
         <v>108500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-35900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>33800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>418400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>112400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-86600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>32500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>417200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>110500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>22900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>427900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>160900</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3949,52 +4168,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-30900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-32100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-32400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-25100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-25800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-49600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-69900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-27800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-55200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-29500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-43100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-15700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-32300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-43800</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4037,8 +4260,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4081,52 +4307,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-88900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-32100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-32400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-25100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-25800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-49600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-69900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-27800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-55200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-29500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-43100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-15700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-32300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-45100</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4143,8 +4375,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4164,31 +4397,34 @@
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
         <v>-300</v>
       </c>
       <c r="K96" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-400</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-300</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4231,8 +4467,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4275,8 +4514,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4319,52 +4561,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-89000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-47400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-7900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-249400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-83300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-146200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-8100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-112900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-38300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-117500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-108200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-246800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-80700</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4407,48 +4655,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>291600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-12600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-115700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>143200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-20500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-302700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>249100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>42700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-164700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-101000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>148800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>35100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MIK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MIK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>MIK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,213 +665,225 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43953</v>
+      </c>
+      <c r="E7" s="2">
         <v>43862</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43771</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43680</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43589</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43498</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43407</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43316</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43225</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43134</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43036</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42945</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42854</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42763</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>799900</v>
+      </c>
+      <c r="E8" s="3">
         <v>1722600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1222000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1033700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1093700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1789100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1274100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2208800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1155500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1890600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1240200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2231200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1158600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1750900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1227200</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>578100</v>
+      </c>
+      <c r="E9" s="3">
         <v>1076600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>780400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>666700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>676100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1074300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>795100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1378900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>698900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1116100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>756100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1361000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>690900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1045100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>760600</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>221800</v>
+      </c>
+      <c r="E10" s="3">
         <v>646000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>441600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>367000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>417600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>714800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>479000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>829900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>456600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>774500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>484100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>870200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>467700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>705800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>466600</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +901,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -983,8 +999,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -992,32 +1011,32 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>41500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>60000</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>46100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>47500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>7400</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
@@ -1025,13 +1044,16 @@
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>7400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1077,8 +1099,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1093,102 +1118,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>860600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1447600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1146100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>963500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1001000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1515900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1136900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2057400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1076600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1536300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1086300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2003900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1019300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1414300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1087800</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-60700</v>
+      </c>
+      <c r="E18" s="3">
         <v>275000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>75900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>70200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>92700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>273200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>137200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>151400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>78900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>354300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>153900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>227300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>139300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>336600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>139400</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1206,243 +1238,259 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E20" s="3">
         <v>1700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-3100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1700</v>
-      </c>
-      <c r="L20" s="3">
-        <v>400</v>
       </c>
       <c r="M20" s="3">
         <v>400</v>
       </c>
       <c r="N20" s="3">
+        <v>400</v>
+      </c>
+      <c r="O20" s="3">
         <v>-1400</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-24900</v>
+      </c>
+      <c r="E21" s="3">
         <v>308100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>107100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>101600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>121100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>307300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>168200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>213000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>110100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>387400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>183000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>283400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>167900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>365900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>167400</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E22" s="3">
         <v>37800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>38800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>40100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>37400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>37600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>37800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>71700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>34600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>34800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>32800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>61500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>30400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>30600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-95900</v>
+      </c>
+      <c r="E23" s="3">
         <v>238800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>37000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>30300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>52300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>235400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>99500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>82200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>46000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>319900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>121400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>164400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>108900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>306200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>107600</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-32400</v>
+      </c>
+      <c r="E24" s="3">
         <v>57200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>8300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>14600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>54000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>22800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>19700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>108400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>41600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>56700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>36700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>110900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>31200</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1488,102 +1536,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-63500</v>
+      </c>
+      <c r="E26" s="3">
         <v>181700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>28700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>24500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>37700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>181400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>76700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>62500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>35000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>211500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>79800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>107800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>72200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>195300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>76500</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-63500</v>
+      </c>
+      <c r="E27" s="3">
         <v>181400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>28700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>24500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>37700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>181100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>76500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>62300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>34900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>210700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>79500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>107300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>71900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>194200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1629,8 +1686,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1646,23 +1706,23 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>7100</v>
-      </c>
-      <c r="J29" s="3">
-        <v>-8100</v>
       </c>
       <c r="K29" s="3">
         <v>-8100</v>
       </c>
       <c r="L29" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="M29" s="3">
         <v>-8500</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1676,8 +1736,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1723,8 +1786,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1770,102 +1836,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>3100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1700</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-400</v>
       </c>
       <c r="M32" s="3">
         <v>-400</v>
       </c>
       <c r="N32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O32" s="3">
         <v>1400</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-63500</v>
+      </c>
+      <c r="E33" s="3">
         <v>181400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>28700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>24500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>37700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>181100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>83600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>54200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>26800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>202200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>79500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>107300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>71900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>194200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1911,107 +1986,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-63500</v>
+      </c>
+      <c r="E35" s="3">
         <v>181400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>28700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>24500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>37700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>181100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>83600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>54200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>26800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>202200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>79500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>107300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>71900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>194200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43953</v>
+      </c>
+      <c r="E38" s="2">
         <v>43862</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43771</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43680</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43589</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43498</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43407</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43316</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43225</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43134</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43036</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42945</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42854</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42763</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2029,8 +2113,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2048,55 +2133,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>926800</v>
+      </c>
+      <c r="E41" s="3">
         <v>410000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>118400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>131000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>246700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>245900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>102700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>123200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>422500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>425900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>176800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>134100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>197900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>298800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>150000</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2142,196 +2231,211 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E43" s="3">
         <v>30400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>27000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>23900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>36200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>62300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>49500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>47600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>32900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>30000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>36700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>44400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>29800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>29000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>63700</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1110800</v>
+      </c>
+      <c r="E44" s="3">
         <v>1097100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1423400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1256500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1101700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1108700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1440900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1280100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1121600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1123300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1404200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1195500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1102300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1127800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1394100</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>51400</v>
+      </c>
+      <c r="E45" s="3">
         <v>62300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>73200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>69700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>65300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>98700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>100800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>98700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>108500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>97800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>96000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>87200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>84900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>87200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2112400</v>
+      </c>
+      <c r="E46" s="3">
         <v>1599800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1641900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1481100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1450000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1515500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1693900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1549600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1685300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1677000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1713700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1461200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1414800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1542800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1693400</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2377,102 +2481,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1997100</v>
+      </c>
+      <c r="E48" s="3">
         <v>2040400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2045500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2048500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2047600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>439100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>453400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>445100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>424900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>420000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>401900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>407700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>403000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>413200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>412200</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>158800</v>
+      </c>
+      <c r="E49" s="3">
         <v>160700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>99300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>126200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>129000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>129300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>139700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>140100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>140500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>140800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>141300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>141800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>142300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>142800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>143500</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2518,8 +2631,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2565,55 +2681,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>39300</v>
+      </c>
+      <c r="E52" s="3">
         <v>37100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>58300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>51400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>52600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>44400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>52100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>57700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>62800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>62400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>49200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>49300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>49600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>48900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>42300</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2659,55 +2781,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4307600</v>
+      </c>
+      <c r="E54" s="3">
         <v>3838100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3845100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3707100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3679300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2128300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2339000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2192500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2313500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2300200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2306100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2060000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2009800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2147600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2291500</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2725,8 +2853,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2744,60 +2873,64 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>443900</v>
+      </c>
+      <c r="E57" s="3">
         <v>476300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>658200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>533500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>406900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>485000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>645500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>555300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>449700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>483000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>674200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>510800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>430300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>517300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>714200</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>24900</v>
+        <v>624900</v>
       </c>
       <c r="E58" s="3">
         <v>24900</v>
@@ -2812,222 +2945,237 @@
         <v>24900</v>
       </c>
       <c r="I58" s="3">
+        <v>24900</v>
+      </c>
+      <c r="J58" s="3">
         <v>240300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>140300</v>
-      </c>
-      <c r="K58" s="3">
-        <v>24900</v>
       </c>
       <c r="L58" s="3">
         <v>24900</v>
       </c>
       <c r="M58" s="3">
+        <v>24900</v>
+      </c>
+      <c r="N58" s="3">
         <v>140100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>112100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>24900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>31100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>695700</v>
+      </c>
+      <c r="E59" s="3">
         <v>695200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>699700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>632800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>710200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>422600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>408200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>352400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>466800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>450000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>416800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>392600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>457200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>475800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>378300</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1764500</v>
+      </c>
+      <c r="E60" s="3">
         <v>1196400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1382700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1191200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1142100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>932600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1293900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1047900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>941400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>957900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1231200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1015600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>912300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1024200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1117400</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2639100</v>
+      </c>
+      <c r="E61" s="3">
         <v>2644500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2649800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2655400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2675600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2681000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2690300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2695100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2696400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2701800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2707100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2712500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2717800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2723200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2734800</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1419500</v>
+      </c>
+      <c r="E62" s="3">
         <v>1443700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1444400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1448100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1448900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>141000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>144700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>148900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>159600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>150000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>100700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>100000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>101600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>98700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>98900</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3073,8 +3221,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3120,8 +3271,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3167,55 +3321,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5823000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5284600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5476900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5294700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5266600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3754500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4128900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3891900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3797500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3809700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4038900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3828000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3731700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3846100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3951000</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3233,8 +3393,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3280,8 +3441,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3327,8 +3491,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3374,8 +3541,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3421,55 +3591,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1501900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1438400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1620000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1573800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1590500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1628200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1781500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1701000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1512900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1539800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1742700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1822500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1858100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1930300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-2125600</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3515,8 +3691,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3562,8 +3741,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3609,55 +3791,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1515400</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1446500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1631800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1587600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1587400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1626200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1789900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1699400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1483900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1509500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1732800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1768000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1721900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1698400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1659500</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3703,107 +3891,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43953</v>
+      </c>
+      <c r="E80" s="2">
         <v>43862</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43771</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43680</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43589</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43498</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43407</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43316</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43225</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43134</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43036</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42945</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42854</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42763</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-63500</v>
+      </c>
+      <c r="E81" s="3">
         <v>181400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>28700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>24500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>37700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>181100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>83600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>54200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>26800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>202200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>79500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>107300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>71900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>194200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3821,55 +4018,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>32800</v>
+      </c>
+      <c r="E83" s="3">
         <v>31500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>31300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>31200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>31500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>34300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>30900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>59100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>29500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>32700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>28800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>57400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>28600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>29100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>28200</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3915,8 +4116,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3962,8 +4166,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4009,8 +4216,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4056,8 +4266,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4103,55 +4316,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-55500</v>
+      </c>
+      <c r="E89" s="3">
         <v>386800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>108500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-35900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>33800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>418400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>112400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-86600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>32500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>417200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>110500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-4000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>22900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>427900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>160900</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4169,55 +4388,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-30900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-32100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-32400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-25100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-25800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-49600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-69900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-27800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-55200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-29500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-43100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-15700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-32300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-43800</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4263,8 +4486,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4310,55 +4536,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-88900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-32100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-32400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-25100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-25800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-49600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-69900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-27800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-55200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-29500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-43100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-15700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-32300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-45100</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4376,8 +4608,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4400,31 +4633,34 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="K96" s="3">
         <v>-300</v>
       </c>
       <c r="L96" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-400</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-300</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4470,8 +4706,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4517,8 +4756,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4564,55 +4806,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>593400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-6300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-89000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-47400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-7900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-249400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-83300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-146200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-8100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-112900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-38300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-117500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-108200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-246800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-80700</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4658,51 +4906,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>516900</v>
+      </c>
+      <c r="E102" s="3">
         <v>291600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-12600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-115700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>143200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-20500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-302700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>249100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>42700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-164700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-101000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>148800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>35100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MIK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MIK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>MIK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,225 +665,237 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44044</v>
+      </c>
+      <c r="E7" s="2">
         <v>43953</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43862</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43771</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43680</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43589</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43498</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43407</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43225</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43134</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43036</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42945</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42854</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42763</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1148200</v>
+      </c>
+      <c r="E8" s="3">
         <v>799900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1722600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1222000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1033700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1093700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1789100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1274100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2208800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1155500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1890600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1240200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2231200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1158600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1750900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1227200</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>760200</v>
+      </c>
+      <c r="E9" s="3">
         <v>578100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1076600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>780400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>666700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>676100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1074300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>795100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1378900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>698900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1116100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>756100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1361000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>690900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1045100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>760600</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>388000</v>
+      </c>
+      <c r="E10" s="3">
         <v>221800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>646000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>441600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>367000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>417600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>714800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>479000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>829900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>456600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>774500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>484100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>870200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>467700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>705800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>466600</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -902,8 +914,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -952,8 +965,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1002,44 +1018,47 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>52500</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>41500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>5000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>60000</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>46100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>47500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>7400</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
@@ -1047,13 +1066,16 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>7400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1102,8 +1124,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1119,108 +1144,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1094900</v>
+      </c>
+      <c r="E17" s="3">
         <v>860600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1447600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1146100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>963500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1001000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1515900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1136900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2057400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1076600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1536300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1086300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2003900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1019300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1414300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1087800</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>53300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-60700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>275000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>75900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>70200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>92700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>273200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>137200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>151400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>78900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>354300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>153900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>227300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>139300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>336600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>139400</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1239,258 +1271,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E20" s="3">
         <v>2900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-3100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1700</v>
-      </c>
-      <c r="M20" s="3">
-        <v>400</v>
       </c>
       <c r="N20" s="3">
         <v>400</v>
       </c>
       <c r="O20" s="3">
+        <v>400</v>
+      </c>
+      <c r="P20" s="3">
         <v>-1400</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>83200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-24900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>308100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>107100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>101600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>121100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>307300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>168200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>213000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>110100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>387400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>183000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>283400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>167900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>365900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>167400</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E22" s="3">
         <v>38100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>37800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>38800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>40100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>37400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>37600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>37800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>71700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>34600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>34800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>32800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>61500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>30400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>30600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-95900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>238800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>37000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>30300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>52300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>235400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>99500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>82200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>46000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>319900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>121400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>164400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>108900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>306200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>107600</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-32400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>57200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>8300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>14600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>54000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>22800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>19700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>11100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>108400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>41600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>56700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>36700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>110900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>31200</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1539,108 +1587,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-63500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>181700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>28700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>24500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>37700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>181400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>76700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>62500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>35000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>211500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>79800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>107800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>72200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>195300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>76500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-63500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>181400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>28700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>24500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>37700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>181100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>76500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>62300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>34900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>210700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>79500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>107300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>71900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>194200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1689,8 +1746,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1709,23 +1769,23 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>7100</v>
-      </c>
-      <c r="K29" s="3">
-        <v>-8100</v>
       </c>
       <c r="L29" s="3">
         <v>-8100</v>
       </c>
       <c r="M29" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="N29" s="3">
         <v>-8500</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1739,8 +1799,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1789,8 +1852,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1839,108 +1905,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>3100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1700</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-400</v>
       </c>
       <c r="N32" s="3">
         <v>-400</v>
       </c>
       <c r="O32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P32" s="3">
         <v>1400</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-63500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>181400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>28700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>24500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>37700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>181100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>83600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>54200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>26800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>202200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>79500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>107300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>71900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>194200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1989,113 +2064,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-63500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>181400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>28700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>24500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>37700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>181100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>83600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>54200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>26800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>202200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>79500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>107300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>71900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>194200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44044</v>
+      </c>
+      <c r="E38" s="2">
         <v>43953</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43862</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43771</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43680</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43589</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43498</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43407</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43225</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43134</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43036</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42945</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42854</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42763</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2114,8 +2198,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2134,58 +2219,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>651100</v>
+      </c>
+      <c r="E41" s="3">
         <v>926800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>410000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>118400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>131000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>246700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>245900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>102700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>123200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>422500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>425900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>176800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>134100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>197900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>298800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>150000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2234,208 +2323,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E43" s="3">
         <v>23300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>30400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>27000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>23900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>36200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>62300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>49500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>47600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>32900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>30000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>36700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>44400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>29800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>29000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>63700</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1021700</v>
+      </c>
+      <c r="E44" s="3">
         <v>1110800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1097100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1423400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1256500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1101700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1108700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1440900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1280100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1121600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1123300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1404200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1195500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1102300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1127800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1394100</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>60700</v>
+      </c>
+      <c r="E45" s="3">
         <v>51400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>62300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>73200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>69700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>65300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>98700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>100800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>98700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>108500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>97800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>96000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>87200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>84900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>87200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1764600</v>
+      </c>
+      <c r="E46" s="3">
         <v>2112400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1599800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1641900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1481100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1450000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1515500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1693900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1549600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1685300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1677000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1713700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1461200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1414800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1542800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1693400</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2484,108 +2588,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1964900</v>
+      </c>
+      <c r="E48" s="3">
         <v>1997100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2040400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2045500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2048500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2047600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>439100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>453400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>445100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>424900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>420000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>401900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>407700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>403000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>413200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>412200</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>154100</v>
+      </c>
+      <c r="E49" s="3">
         <v>158800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>160700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>99300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>126200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>129000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>129300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>139700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>140100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>140500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>140800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>141300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>141800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>142300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>142800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>143500</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2634,8 +2747,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2684,58 +2800,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>39800</v>
+      </c>
+      <c r="E52" s="3">
         <v>39300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>37100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>58300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>51400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>52600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>44400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>52100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>57700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>62800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>62400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>49200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>49300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>49600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>48900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>42300</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2784,58 +2906,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3923300</v>
+      </c>
+      <c r="E54" s="3">
         <v>4307600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3838100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3845100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3707100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3679300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2128300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2339000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2192500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2313500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2300200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2306100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2060000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2009800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2147600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2291500</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2854,8 +2982,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2874,66 +3003,70 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>627600</v>
+      </c>
+      <c r="E57" s="3">
         <v>443900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>476300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>658200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>533500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>406900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>485000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>645500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>555300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>449700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>483000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>674200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>510800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>430300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>517300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>714200</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E58" s="3">
         <v>624900</v>
-      </c>
-      <c r="E58" s="3">
-        <v>24900</v>
       </c>
       <c r="F58" s="3">
         <v>24900</v>
@@ -2948,234 +3081,249 @@
         <v>24900</v>
       </c>
       <c r="J58" s="3">
+        <v>24900</v>
+      </c>
+      <c r="K58" s="3">
         <v>240300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>140300</v>
-      </c>
-      <c r="L58" s="3">
-        <v>24900</v>
       </c>
       <c r="M58" s="3">
         <v>24900</v>
       </c>
       <c r="N58" s="3">
+        <v>24900</v>
+      </c>
+      <c r="O58" s="3">
         <v>140100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>112100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>24900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>31100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>726700</v>
+      </c>
+      <c r="E59" s="3">
         <v>695700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>695200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>699700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>632800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>710200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>422600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>408200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>352400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>466800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>450000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>416800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>392600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>457200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>475800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>378300</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1379200</v>
+      </c>
+      <c r="E60" s="3">
         <v>1764500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1196400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1382700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1191200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1142100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>932600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1293900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1047900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>941400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>957900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1231200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1015600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>912300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1024200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1117400</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2633600</v>
+      </c>
+      <c r="E61" s="3">
         <v>2639100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2644500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2649800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2655400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2675600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2681000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2690300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2695100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2696400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2701800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2707100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2712500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2717800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2723200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2734800</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1420400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1419500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1443700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1444400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1448100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1448900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>141000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>144700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>148900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>159600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>150000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>100700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>100000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>101600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>98700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>98900</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3224,8 +3372,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3274,8 +3425,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3324,58 +3478,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5433200</v>
+      </c>
+      <c r="E66" s="3">
         <v>5823000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5284600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5476900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5294700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5266600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3754500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4128900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3891900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3797500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3809700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4038900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3828000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3731700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3846100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3951000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3394,8 +3554,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3444,8 +3605,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3494,8 +3658,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3544,8 +3711,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3594,58 +3764,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1509600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1501900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1438400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1620000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1573800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1590500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1628200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1781500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1701000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1512900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1539800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1742700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-1822500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1858100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1930300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2125600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3694,8 +3870,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3744,8 +3923,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3794,58 +3976,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1509900</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1515400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-1446500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1631800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1587600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-1587400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1626200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1789900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1699400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1483900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1509500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1732800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1768000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1721900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1698400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1659500</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3894,113 +4082,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44044</v>
+      </c>
+      <c r="E80" s="2">
         <v>43953</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43862</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43771</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43680</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43589</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43498</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43407</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43225</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43134</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43036</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42945</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42854</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42763</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-63500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>181400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>28700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>24500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>37700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>181100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>83600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>54200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>26800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>202200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>79500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>107300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>71900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>194200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4019,58 +4216,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E83" s="3">
         <v>32800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>31500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>31300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>31200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>31500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>34300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>30900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>59100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>29500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>32700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>28800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>57400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>28600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>29100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>28200</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4119,8 +4320,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4169,8 +4373,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4219,8 +4426,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4269,8 +4479,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4319,58 +4532,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>355300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-55500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>386800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>108500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-35900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>33800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>418400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>112400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-86600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>32500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>417200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>110500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>22900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>427900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>160900</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4389,58 +4608,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-21900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-30900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-32100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-32400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-25100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-25800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-49600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-69900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-27800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-55200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-29500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-43100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-15700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-32300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-43800</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4489,8 +4712,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4539,58 +4765,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-21000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-88900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-32100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-32400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-25100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-25800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-49600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-69900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-27800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-55200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-29500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-43100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-15700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-32300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-45100</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4609,8 +4841,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4636,31 +4869,34 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="L96" s="3">
         <v>-300</v>
       </c>
       <c r="M96" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-400</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-300</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4709,8 +4945,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4759,8 +4998,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4809,58 +5051,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-606400</v>
+      </c>
+      <c r="E100" s="3">
         <v>593400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-6300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-89000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-47400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-7900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-249400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-83300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-146200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-8100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-112900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-38300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-117500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-108200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-246800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-80700</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4909,54 +5157,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-275700</v>
+      </c>
+      <c r="E102" s="3">
         <v>516900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>291600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-12600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-115700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>143200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-20500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-302700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>249100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>42700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-164700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-101000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>148800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>35100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MIK_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MIK_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="92">
   <si>
     <t>MIK</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,237 +665,263 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F7" s="2">
         <v>44044</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43953</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43862</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43771</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43680</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43589</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43498</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43407</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43316</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43225</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43134</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43036</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42945</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42854</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42763</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1148200</v>
+        <v>1916800</v>
       </c>
       <c r="E8" s="3">
+        <v>1406200</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1948100</v>
+      </c>
+      <c r="G8" s="3">
         <v>799900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1722600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1222000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1033700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1093700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1789100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1274100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2208800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1155500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1890600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1240200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2231200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1158600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1750900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1227200</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>760200</v>
+        <v>1107400</v>
       </c>
       <c r="E9" s="3">
-        <v>578100</v>
+        <v>832100</v>
       </c>
       <c r="F9" s="3">
+        <v>1334600</v>
+      </c>
+      <c r="G9" s="3">
+        <v>576300</v>
+      </c>
+      <c r="H9" s="3">
         <v>1076600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>780400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>666700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>676100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1074300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>795100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1378900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>698900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1116100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>756100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1361000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>690900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1045100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>760600</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>388000</v>
+        <v>809400</v>
       </c>
       <c r="E10" s="3">
-        <v>221800</v>
+        <v>574100</v>
       </c>
       <c r="F10" s="3">
+        <v>613500</v>
+      </c>
+      <c r="G10" s="3">
+        <v>223600</v>
+      </c>
+      <c r="H10" s="3">
         <v>646000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>441600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>367000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>417600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>714800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>479000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>829900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>456600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>774500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>484100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>870200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>467700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>705800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>466600</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -915,8 +941,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -968,8 +996,14 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1021,61 +1055,73 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>52500</v>
+        <v>19600</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>25200</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>63000</v>
       </c>
       <c r="G14" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>41500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>5000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>3100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>60000</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>46100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>47500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>7400</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>7400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1127,8 +1173,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1145,114 +1197,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1094900</v>
+        <v>1574800</v>
       </c>
       <c r="E17" s="3">
+        <v>1229300</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1955500</v>
+      </c>
+      <c r="G17" s="3">
         <v>860600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1447600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1146100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>963500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1001000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1515900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1136900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2057400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1076600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1536300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1086300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2003900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1019300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1414300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1087800</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>53300</v>
+        <v>342000</v>
       </c>
       <c r="E18" s="3">
+        <v>176900</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-60700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>275000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>75900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>70200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>92700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>273200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>137200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>151400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>78900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>354300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>153900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>227300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>139300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>336600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>139400</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1272,273 +1338,305 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G20" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>200</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M20" s="3">
+        <v>100</v>
+      </c>
+      <c r="N20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="O20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P20" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>400</v>
+      </c>
+      <c r="R20" s="3">
         <v>-1400</v>
       </c>
-      <c r="E20" s="3">
-        <v>2900</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="U20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
-        <v>100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>2500</v>
-      </c>
-      <c r="M20" s="3">
-        <v>1700</v>
-      </c>
-      <c r="N20" s="3">
-        <v>400</v>
-      </c>
-      <c r="O20" s="3">
-        <v>400</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>200</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>83200</v>
+        <v>377000</v>
       </c>
       <c r="E21" s="3">
+        <v>208100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>58200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-24900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>308100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>107100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>101600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>121100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>307300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>168200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>213000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>110100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>387400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>183000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>283400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>167900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>365900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>167400</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>36700</v>
+        <v>40200</v>
       </c>
       <c r="E22" s="3">
+        <v>37400</v>
+      </c>
+      <c r="F22" s="3">
+        <v>74900</v>
+      </c>
+      <c r="G22" s="3">
         <v>38100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>37800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>38800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>40100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>37400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>37600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>37800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>71700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>34600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>34800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>32800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>61500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>30400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>30600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>31500</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>15200</v>
+        <v>301900</v>
       </c>
       <c r="E23" s="3">
+        <v>139400</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-80700</v>
+      </c>
+      <c r="G23" s="3">
         <v>-95900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>238800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>37000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>30300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>52300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>235400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>99500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>82200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>46000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>319900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>121400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>164400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>108900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>306200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>107600</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>22900</v>
+        <v>46800</v>
       </c>
       <c r="E24" s="3">
+        <v>28300</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="G24" s="3">
         <v>-32400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>57200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>8300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>5700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>14600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>54000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>22800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>19700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>11100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>108400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>41600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>56700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>36700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>110900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>31200</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1590,114 +1688,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-7800</v>
+        <v>255100</v>
       </c>
       <c r="E26" s="3">
+        <v>111100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-71300</v>
+      </c>
+      <c r="G26" s="3">
         <v>-63500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>181700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>28700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>24500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>37700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>181400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>76700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>62500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>35000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>211500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>79800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>107800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>72200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>195300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>76500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-7800</v>
+        <v>254900</v>
       </c>
       <c r="E27" s="3">
+        <v>111100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-71200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-63500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>181400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>28700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>24500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>37700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>181100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>76500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>62300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>34900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>210700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>79500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>107300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>71900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>194200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1749,8 +1865,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1772,26 +1894,26 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>7100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>-8100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>-8100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>-8500</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1802,8 +1924,14 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1855,8 +1983,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1908,114 +2042,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I32" s="3">
+        <v>100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K32" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L32" s="3">
+        <v>300</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R32" s="3">
         <v>1400</v>
       </c>
-      <c r="E32" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="G32" s="3">
-        <v>100</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>3100</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="U32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-400</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-400</v>
-      </c>
-      <c r="P32" s="3">
-        <v>1400</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S32" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-7800</v>
+        <v>254900</v>
       </c>
       <c r="E33" s="3">
+        <v>111100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-71200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-63500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>181400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>28700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>24500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>37700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>181100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>83600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>54200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>26800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>202200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>79500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>107300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>71900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>194200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2067,119 +2219,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-7800</v>
+        <v>254900</v>
       </c>
       <c r="E35" s="3">
+        <v>111100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-71200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-63500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>181400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>28700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>24500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>37700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>181100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>83600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>54200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>26800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>202200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>79500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>107300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>71900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>194200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F38" s="2">
         <v>44044</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43953</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43862</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43771</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43680</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43589</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43498</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43407</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43316</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43225</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43134</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43036</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42945</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42854</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42763</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2199,8 +2369,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2220,61 +2392,69 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1194400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>852000</v>
+      </c>
+      <c r="F41" s="3">
         <v>651100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>926800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>410000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>118400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>131000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>246700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>245900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>102700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>123200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>422500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>425900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>176800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>134100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>197900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>298800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>150000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2326,220 +2506,250 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>24200</v>
+      </c>
+      <c r="F43" s="3">
         <v>31000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>23300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>30400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>27000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>23900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>36200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>62300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>49500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>47600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>32900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>30000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>36700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>44400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>29800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>29000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>63700</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1007000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1170500</v>
+      </c>
+      <c r="F44" s="3">
         <v>1021700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1110800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1097100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1423400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1256500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1101700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1108700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1440900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1280100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1121600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1123300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1404200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1195500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1102300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>1127800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>1394100</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>56800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>69700</v>
+      </c>
+      <c r="F45" s="3">
         <v>60700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>51400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>62300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>73200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>69700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>65300</v>
-      </c>
-      <c r="J45" s="3">
-        <v>98700</v>
-      </c>
-      <c r="K45" s="3">
-        <v>100800</v>
       </c>
       <c r="L45" s="3">
         <v>98700</v>
       </c>
       <c r="M45" s="3">
+        <v>100800</v>
+      </c>
+      <c r="N45" s="3">
+        <v>98700</v>
+      </c>
+      <c r="O45" s="3">
         <v>108500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>97800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>96000</v>
-      </c>
-      <c r="P45" s="3">
-        <v>87200</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>84900</v>
       </c>
       <c r="R45" s="3">
         <v>87200</v>
       </c>
       <c r="S45" s="3">
+        <v>84900</v>
+      </c>
+      <c r="T45" s="3">
+        <v>87200</v>
+      </c>
+      <c r="U45" s="3">
         <v>85700</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2272300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2116400</v>
+      </c>
+      <c r="F46" s="3">
         <v>1764600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2112400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1599800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1641900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1481100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1450000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1515500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1693900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1549600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1685300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1677000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1713700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1461200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1414800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1542800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1693400</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2591,114 +2801,132 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2067100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1957600</v>
+      </c>
+      <c r="F48" s="3">
         <v>1964900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1997100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2040400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2045500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2048500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2047600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>439100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>453400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>445100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>424900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>420000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>401900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>407700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>403000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>413200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>412200</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>151400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>153000</v>
+      </c>
+      <c r="F49" s="3">
         <v>154100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>158800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>160700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>99300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>126200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>129000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>129300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>139700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>140100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>140500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>140800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>141300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>141800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>142300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>142800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>143500</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2750,8 +2978,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2803,61 +3037,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>37600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>36400</v>
+      </c>
+      <c r="F52" s="3">
         <v>39800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>39300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>37100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>58300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>51400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>52600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>44400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>52100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>57700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>62800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>62400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>49200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>49300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>49600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>48900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>42300</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2909,61 +3155,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4528400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4263300</v>
+      </c>
+      <c r="F54" s="3">
         <v>3923300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>4307600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3838100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3845100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3707100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>3679300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2128300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2339000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2192500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2313500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2300200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2306100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2060000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>2009800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2147600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2291500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2983,8 +3241,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3004,75 +3264,83 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>858800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>895200</v>
+      </c>
+      <c r="F57" s="3">
         <v>627600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>443900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>476300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>658200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>533500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>406900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>485000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>645500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>555300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>449700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>483000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>674200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>510800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>430300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>517300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>714200</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>24900</v>
+        <v>16700</v>
       </c>
       <c r="E58" s="3">
-        <v>624900</v>
+        <v>16700</v>
       </c>
       <c r="F58" s="3">
         <v>24900</v>
       </c>
       <c r="G58" s="3">
-        <v>24900</v>
+        <v>624900</v>
       </c>
       <c r="H58" s="3">
         <v>24900</v>
@@ -3084,246 +3352,276 @@
         <v>24900</v>
       </c>
       <c r="K58" s="3">
+        <v>24900</v>
+      </c>
+      <c r="L58" s="3">
+        <v>24900</v>
+      </c>
+      <c r="M58" s="3">
         <v>240300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>140300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>24900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>24900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>140100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>112100</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>24900</v>
-      </c>
-      <c r="R58" s="3">
-        <v>31100</v>
       </c>
       <c r="S58" s="3">
         <v>24900</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>31100</v>
+      </c>
+      <c r="U58" s="3">
+        <v>24900</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>840200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>822600</v>
+      </c>
+      <c r="F59" s="3">
         <v>726700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>695700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>695200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>699700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>632800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>710200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>422600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>408200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>352400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>466800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>450000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>416800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>392600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>457200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>475800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>378300</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1715700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1734500</v>
+      </c>
+      <c r="F60" s="3">
         <v>1379200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1764500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1196400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1382700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1191200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1142100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>932600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1293900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1047900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>941400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>957900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1231200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1015600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>912300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1024200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1117400</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2481000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2483700</v>
+      </c>
+      <c r="F61" s="3">
         <v>2633600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2639100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2644500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>2649800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2655400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>2675600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2681000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2690300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2695100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2696400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2701800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>2707100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2712500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>2717800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>2723200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>2734800</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1528900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1435000</v>
+      </c>
+      <c r="F62" s="3">
         <v>1420400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1419500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1443700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1444400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1448100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1448900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>141000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>144700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>148900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>159600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>150000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>100700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>100000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>101600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>98700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>98900</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3375,8 +3673,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3428,8 +3732,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3481,61 +3791,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5725600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5653300</v>
+      </c>
+      <c r="F66" s="3">
         <v>5433200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>5823000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5284600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>5476900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5294700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>5266600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3754500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4128900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3891900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3797500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3809700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>4038900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3828000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3731700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3846100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>3951000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3555,8 +3877,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3608,8 +3932,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3661,8 +3991,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3714,8 +4050,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3767,61 +4109,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1193200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-1398500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-1509600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-1501900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-1438400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-1620000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-1573800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-1590500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-1628200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1781500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1701000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-1512900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-1539800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-1742700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-1822500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-1858100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-1930300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-2125600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3873,8 +4227,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3926,8 +4286,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3979,61 +4345,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1197200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1389900</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1509900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-1515400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-1446500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-1631800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1587600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1587400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-1626200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-1789900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-1699400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-1483900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-1509500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-1732800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1768000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-1721900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-1698400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-1659500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4085,119 +4463,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F80" s="2">
         <v>44044</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43953</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43862</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43771</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43680</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43589</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43498</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43407</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43316</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43225</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43134</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43036</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42945</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42854</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42763</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-7800</v>
+        <v>254900</v>
       </c>
       <c r="E81" s="3">
+        <v>111100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-71200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-63500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>181400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>28700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>24500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>37700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>181100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>83600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>54200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>26800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>202200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>79500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>107300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>71900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>194200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>76000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4217,61 +4613,69 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>34900</v>
+      </c>
+      <c r="E83" s="3">
+        <v>31300</v>
+      </c>
+      <c r="F83" s="3">
+        <v>64100</v>
+      </c>
+      <c r="G83" s="3">
+        <v>32800</v>
+      </c>
+      <c r="H83" s="3">
+        <v>31500</v>
+      </c>
+      <c r="I83" s="3">
+        <v>31300</v>
+      </c>
+      <c r="J83" s="3">
         <v>31200</v>
       </c>
-      <c r="E83" s="3">
-        <v>32800</v>
-      </c>
-      <c r="F83" s="3">
+      <c r="K83" s="3">
         <v>31500</v>
       </c>
-      <c r="G83" s="3">
-        <v>31300</v>
-      </c>
-      <c r="H83" s="3">
-        <v>31200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>31500</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>34300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>30900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>59100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>29500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>32700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>28800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>57400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>28600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>29100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>28200</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4323,8 +4727,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4376,8 +4786,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4429,8 +4845,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4482,8 +4904,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4535,61 +4963,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>355300</v>
+        <v>509600</v>
       </c>
       <c r="E89" s="3">
+        <v>413100</v>
+      </c>
+      <c r="F89" s="3">
+        <v>299700</v>
+      </c>
+      <c r="G89" s="3">
         <v>-55500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>386800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>108500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-35900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>33800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>418400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>112400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-86600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>32500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>417200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>110500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-4000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>22900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>427900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>160900</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4609,61 +5049,69 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-24600</v>
+        <v>-82500</v>
       </c>
       <c r="E91" s="3">
+        <v>-33100</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-46400</v>
+      </c>
+      <c r="G91" s="3">
         <v>-21900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-30900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-32100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-32400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-25100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-25800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-49600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-69900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-27800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-55200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-29500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-43100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-15700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-32300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-43800</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4715,8 +5163,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4768,61 +5222,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-24600</v>
+        <v>-82500</v>
       </c>
       <c r="E94" s="3">
+        <v>-33100</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-45600</v>
+      </c>
+      <c r="G94" s="3">
         <v>-21000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-88900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-32100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-32400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-25100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-25800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-49600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-69900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-27800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-55200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-29500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-43100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-15700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-32300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-45100</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4842,8 +5308,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4872,31 +5340,37 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-300</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-400</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="S96" s="3">
         <v>-300</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4948,8 +5422,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5001,8 +5481,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5054,61 +5540,73 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-606400</v>
+        <v>-84700</v>
       </c>
       <c r="E100" s="3">
+        <v>-179100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="G100" s="3">
         <v>593400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-6300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-89000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-47400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-7900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-249400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-83300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-146200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-8100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-112900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-38300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-117500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-108200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-246800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-80700</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5160,57 +5658,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-275700</v>
+        <v>342400</v>
       </c>
       <c r="E102" s="3">
+        <v>200900</v>
+      </c>
+      <c r="F102" s="3">
+        <v>241200</v>
+      </c>
+      <c r="G102" s="3">
         <v>516900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>291600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-12600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-115700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>143200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-20500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-302700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-3400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>249100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>42700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-164700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-101000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>148800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>35100</v>
       </c>
     </row>
